--- a/data/Rock Classification schema.xlsx
+++ b/data/Rock Classification schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkharms/Documents/Research/AK/RockN/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518A8F3F-041B-6E43-B60C-ECF5E13F2437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F497AC57-21E7-2D47-80CA-FAADCE93224A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18960" yWindow="13900" windowWidth="32240" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4040" yWindow="500" windowWidth="27100" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,11 +36,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="163">
   <si>
     <t>sample_id</t>
   </si>
   <si>
+    <t>field_station_number</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
@@ -95,24 +98,63 @@
     <t>structures present</t>
   </si>
   <si>
+    <t>00MBW684</t>
+  </si>
+  <si>
+    <t>ig</t>
+  </si>
+  <si>
+    <t>dacite</t>
+  </si>
+  <si>
+    <t>granite</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>coarse</t>
+  </si>
+  <si>
+    <t>00MBW601</t>
+  </si>
+  <si>
+    <t>meta</t>
+  </si>
+  <si>
+    <t>schist</t>
+  </si>
+  <si>
+    <t>greenschist</t>
+  </si>
+  <si>
+    <t>well developped foliation</t>
+  </si>
+  <si>
+    <t>med/coarse</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>quartz/calcite phenocrysts</t>
+  </si>
+  <si>
     <t>01Z451A</t>
   </si>
   <si>
-    <t>meta</t>
+    <t>01Z451</t>
   </si>
   <si>
     <t>gniess</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
@@ -125,437 +167,371 @@
     <t>medium</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>TN-503-298</t>
+    <t>02JEA625A</t>
+  </si>
+  <si>
+    <t>02JEA625</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>02MBW568A</t>
+  </si>
+  <si>
+    <t>02MBW568</t>
+  </si>
+  <si>
+    <t>fine/med</t>
+  </si>
+  <si>
+    <t>02RN721A</t>
+  </si>
+  <si>
+    <t>02RN721</t>
+  </si>
+  <si>
+    <t>moderate/high</t>
+  </si>
+  <si>
+    <t>banding</t>
+  </si>
+  <si>
+    <t>03JEA156A</t>
+  </si>
+  <si>
+    <t>03JEA156</t>
+  </si>
+  <si>
+    <t>sed</t>
+  </si>
+  <si>
+    <t>mudstone</t>
+  </si>
+  <si>
+    <t>03LF013</t>
+  </si>
+  <si>
+    <t>chert</t>
+  </si>
+  <si>
+    <t>03MBW154B</t>
+  </si>
+  <si>
+    <t>03MBW251B</t>
+  </si>
+  <si>
+    <t>03MBW251</t>
+  </si>
+  <si>
+    <t>03MBW039</t>
+  </si>
+  <si>
+    <t>phyllite</t>
+  </si>
+  <si>
+    <t>slightfoliation</t>
+  </si>
+  <si>
+    <t>fine-med</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>03RN204A</t>
+  </si>
+  <si>
+    <t>03RN204</t>
+  </si>
+  <si>
+    <t>03RN206A</t>
+  </si>
+  <si>
+    <t>03RN206</t>
+  </si>
+  <si>
+    <t>conglomerate</t>
+  </si>
+  <si>
+    <t>03Z091A</t>
+  </si>
+  <si>
+    <t>03Z091</t>
+  </si>
+  <si>
+    <t>serpentenite</t>
+  </si>
+  <si>
+    <t>no foliation</t>
+  </si>
+  <si>
+    <t>03Z114A</t>
+  </si>
+  <si>
+    <t>03Z114</t>
+  </si>
+  <si>
+    <t>low-moderate</t>
+  </si>
+  <si>
+    <t>bending in foliation</t>
+  </si>
+  <si>
+    <t>03Z116A</t>
+  </si>
+  <si>
+    <t>03Z116</t>
+  </si>
+  <si>
+    <t>03Z143A</t>
+  </si>
+  <si>
+    <t>03Z143</t>
+  </si>
+  <si>
+    <t>07JEA136A</t>
+  </si>
+  <si>
+    <t>07JEA136</t>
+  </si>
+  <si>
+    <t>pyhllite</t>
+  </si>
+  <si>
+    <t>slight folding</t>
+  </si>
+  <si>
+    <t>07JEA015</t>
+  </si>
+  <si>
+    <t>slight foliation</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>07JEA287</t>
+  </si>
+  <si>
+    <t>slate</t>
+  </si>
+  <si>
+    <t>zeolite</t>
+  </si>
+  <si>
+    <t>platy cleavage</t>
+  </si>
+  <si>
+    <t>07MBW286</t>
+  </si>
+  <si>
+    <t>07MBW290A</t>
+  </si>
+  <si>
+    <t>07MBW290</t>
+  </si>
+  <si>
+    <t>&gt;5%</t>
+  </si>
+  <si>
+    <t>07MBW560A</t>
+  </si>
+  <si>
+    <t>07MBW560</t>
+  </si>
+  <si>
+    <t>07MBW696</t>
+  </si>
+  <si>
+    <t>schistocity</t>
+  </si>
+  <si>
+    <t>calcite/quartz lens present ~1cm</t>
+  </si>
+  <si>
+    <t>07Z447A</t>
+  </si>
+  <si>
+    <t>07Z447</t>
+  </si>
+  <si>
+    <t>10BAE256B</t>
+  </si>
+  <si>
+    <t>10BAE256</t>
+  </si>
+  <si>
+    <t>10GG183</t>
+  </si>
+  <si>
+    <t>quartzite</t>
+  </si>
+  <si>
+    <t>granulite</t>
+  </si>
+  <si>
+    <t>granoblastic</t>
+  </si>
+  <si>
+    <t>12CW033B</t>
+  </si>
+  <si>
+    <t>fine-coarse</t>
+  </si>
+  <si>
+    <t>12LF245A</t>
+  </si>
+  <si>
+    <t>gneiss</t>
+  </si>
+  <si>
+    <t>&lt;5%</t>
+  </si>
+  <si>
+    <t>small/medium</t>
+  </si>
+  <si>
+    <t>moderate-high</t>
+  </si>
+  <si>
+    <t>12LF247A</t>
+  </si>
+  <si>
+    <t>12LF247A 1302-11</t>
+  </si>
+  <si>
+    <t>very coarse</t>
+  </si>
+  <si>
+    <t>12LF247A H.S STN TX</t>
+  </si>
+  <si>
+    <t>12RN062B</t>
+  </si>
+  <si>
+    <t>**VERY WEATHERED</t>
+  </si>
+  <si>
+    <t>12RN459A</t>
+  </si>
+  <si>
+    <t>12RN490A</t>
+  </si>
+  <si>
+    <t>13RN559A</t>
+  </si>
+  <si>
+    <t>basalt</t>
+  </si>
+  <si>
+    <t>volcanic breccia</t>
+  </si>
+  <si>
+    <t>73AST393</t>
+  </si>
+  <si>
+    <t>81MR83</t>
+  </si>
+  <si>
+    <t>81MR083</t>
+  </si>
+  <si>
+    <t>joints ,folds</t>
+  </si>
+  <si>
+    <t>87M</t>
+  </si>
+  <si>
+    <t>91KC223</t>
+  </si>
+  <si>
+    <t>sine-coarse</t>
+  </si>
+  <si>
+    <t>moderate</t>
+  </si>
+  <si>
+    <t>91LB21</t>
+  </si>
+  <si>
+    <t>91LB021</t>
+  </si>
+  <si>
+    <t>91LB009</t>
+  </si>
+  <si>
+    <t>91RN011</t>
+  </si>
+  <si>
+    <t>quartz_diorite</t>
+  </si>
+  <si>
+    <t>91SL062D</t>
+  </si>
+  <si>
+    <t>91SL067</t>
+  </si>
+  <si>
+    <t>gabbro</t>
+  </si>
+  <si>
+    <t>97RR086A</t>
+  </si>
+  <si>
+    <t>97KC003</t>
+  </si>
+  <si>
+    <t>breccia</t>
+  </si>
+  <si>
+    <t>97SL077</t>
   </si>
   <si>
     <t>peliticschist</t>
   </si>
   <si>
-    <t>schist</t>
-  </si>
-  <si>
     <t>eclogite</t>
   </si>
   <si>
-    <t>slightfoliation</t>
-  </si>
-  <si>
-    <t>fine-med</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>03MBW39A</t>
-  </si>
-  <si>
-    <t>phyllite</t>
-  </si>
-  <si>
-    <t>greenschist</t>
-  </si>
-  <si>
-    <t>07MBW2861A</t>
-  </si>
-  <si>
-    <t>coarse</t>
-  </si>
-  <si>
-    <t>81MR83</t>
-  </si>
-  <si>
-    <t>joints ,folds</t>
-  </si>
-  <si>
-    <t>PM-3-15</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>07JEA136A</t>
-  </si>
-  <si>
-    <t>pyhllite</t>
-  </si>
-  <si>
-    <t>well developped foliation</t>
-  </si>
-  <si>
-    <t>fine/med</t>
-  </si>
-  <si>
-    <t>slight folding</t>
-  </si>
-  <si>
-    <t>12LF245A</t>
-  </si>
-  <si>
-    <t>gneiss</t>
-  </si>
-  <si>
-    <t>&lt;5%</t>
-  </si>
-  <si>
-    <t>small/medium</t>
-  </si>
-  <si>
-    <t>fine-coarse</t>
-  </si>
-  <si>
-    <t>moderate-high</t>
-  </si>
-  <si>
-    <t>banding</t>
-  </si>
-  <si>
-    <t>02MBW568A</t>
-  </si>
-  <si>
-    <t>10GG183B H.S</t>
-  </si>
-  <si>
-    <t>quartzite</t>
-  </si>
-  <si>
-    <t>granulite</t>
-  </si>
-  <si>
-    <t>granoblastic</t>
-  </si>
-  <si>
-    <t>07JEA287AB</t>
-  </si>
-  <si>
-    <t>slate</t>
-  </si>
-  <si>
-    <t>zeolite</t>
-  </si>
-  <si>
-    <t>platy cleavage</t>
-  </si>
-  <si>
-    <t>02JEA625A</t>
-  </si>
-  <si>
-    <t>91KC223</t>
-  </si>
-  <si>
-    <t>sine-coarse</t>
-  </si>
-  <si>
-    <t>moderate</t>
-  </si>
-  <si>
-    <t>07JEA15AB</t>
-  </si>
-  <si>
-    <t>slight foliation</t>
-  </si>
-  <si>
-    <t>03Z091A</t>
-  </si>
-  <si>
-    <t>serpentenite</t>
-  </si>
-  <si>
-    <t>no foliation</t>
-  </si>
-  <si>
-    <t>07Z447A</t>
-  </si>
-  <si>
-    <t>07MBW969B</t>
-  </si>
-  <si>
-    <t>schistocity</t>
-  </si>
-  <si>
-    <t>calcite/quartz lens present ~1cm</t>
-  </si>
-  <si>
-    <t>07MBW560A</t>
-  </si>
-  <si>
-    <t>00MBW601</t>
-  </si>
-  <si>
-    <t>med/coarse</t>
-  </si>
-  <si>
-    <t>quartz/calcite phenocrysts</t>
-  </si>
-  <si>
-    <t>02RN721A</t>
-  </si>
-  <si>
-    <t>moderate/high</t>
-  </si>
-  <si>
-    <t>12RN062B</t>
-  </si>
-  <si>
-    <t>**VERY WEATHERED</t>
-  </si>
-  <si>
-    <t>91SL62D</t>
-  </si>
-  <si>
-    <t>03Z114A</t>
-  </si>
-  <si>
-    <t>low-moderate</t>
-  </si>
-  <si>
-    <t>bending in foliation</t>
-  </si>
-  <si>
-    <t>2012MBW2A</t>
-  </si>
-  <si>
-    <t>sed</t>
-  </si>
-  <si>
-    <t>volcanic breccia</t>
-  </si>
-  <si>
-    <t>03RN204A</t>
-  </si>
-  <si>
-    <t>chert</t>
-  </si>
-  <si>
-    <t>03MBW154B</t>
-  </si>
-  <si>
-    <t>03LF13A</t>
-  </si>
-  <si>
-    <t>03Z116A</t>
-  </si>
-  <si>
-    <t>97SL77</t>
-  </si>
-  <si>
-    <t>03MBW251B</t>
-  </si>
-  <si>
-    <t>03JEA156A</t>
-  </si>
-  <si>
-    <t>mudstone</t>
-  </si>
-  <si>
-    <t>03RN206A</t>
-  </si>
-  <si>
-    <t>conglomerate</t>
-  </si>
-  <si>
-    <t>03Z143A</t>
-  </si>
-  <si>
-    <t>12RN459A</t>
-  </si>
-  <si>
-    <t>ig</t>
-  </si>
-  <si>
-    <t>granite</t>
-  </si>
-  <si>
-    <t>972286A</t>
-  </si>
-  <si>
-    <t>91RN11</t>
-  </si>
-  <si>
-    <t>quartz_diorite</t>
-  </si>
-  <si>
-    <t>10BAE256B</t>
-  </si>
-  <si>
-    <t>dacite</t>
-  </si>
-  <si>
-    <t>91SL67</t>
-  </si>
-  <si>
-    <t>gabbro</t>
-  </si>
-  <si>
-    <t>91LB9</t>
-  </si>
-  <si>
-    <t>00MBN684</t>
-  </si>
-  <si>
-    <t>97KC03</t>
-  </si>
-  <si>
-    <t>breccia</t>
-  </si>
-  <si>
-    <t>12CW033B</t>
-  </si>
-  <si>
-    <t>12LF247A 1302-11</t>
-  </si>
-  <si>
-    <t>very coarse</t>
-  </si>
-  <si>
-    <t>12RN490A</t>
-  </si>
-  <si>
-    <t>12LF247A H.S STN TX</t>
-  </si>
-  <si>
-    <t>13RN559A</t>
-  </si>
-  <si>
-    <t>basalt</t>
-  </si>
-  <si>
-    <t>87MA15</t>
-  </si>
-  <si>
-    <t>73AST393</t>
-  </si>
-  <si>
-    <t>&gt;5%</t>
-  </si>
-  <si>
-    <t>91LB21</t>
-  </si>
-  <si>
-    <t>12LF247A</t>
-  </si>
-  <si>
-    <t>07MBW290A</t>
-  </si>
-  <si>
-    <t>field_station_number</t>
-  </si>
-  <si>
-    <t>00MBW684</t>
-  </si>
-  <si>
-    <t>01Z451</t>
-  </si>
-  <si>
-    <t>02JEA625</t>
-  </si>
-  <si>
-    <t>02MBW568</t>
-  </si>
-  <si>
-    <t>02RN721</t>
-  </si>
-  <si>
-    <t>03JEA156</t>
-  </si>
-  <si>
-    <t>03LF013</t>
-  </si>
-  <si>
-    <t>03MBW251</t>
-  </si>
-  <si>
-    <t>03MBW039</t>
-  </si>
-  <si>
-    <t>03RN204</t>
-  </si>
-  <si>
-    <t>03RN206</t>
-  </si>
-  <si>
-    <t>03Z091</t>
-  </si>
-  <si>
-    <t>03Z114</t>
-  </si>
-  <si>
-    <t>03Z116</t>
-  </si>
-  <si>
-    <t>03Z143</t>
-  </si>
-  <si>
-    <t>07JEA136</t>
-  </si>
-  <si>
-    <t>07JEA287</t>
-  </si>
-  <si>
-    <t>07MBW286</t>
-  </si>
-  <si>
-    <t>07MBW290</t>
-  </si>
-  <si>
-    <t>07MBW560</t>
-  </si>
-  <si>
-    <t>07MBW696</t>
-  </si>
-  <si>
-    <t>07Z447</t>
-  </si>
-  <si>
-    <t>10BAE256</t>
-  </si>
-  <si>
-    <t>10GG183</t>
-  </si>
-  <si>
-    <t>07JEA015</t>
-  </si>
-  <si>
-    <t>91LB021</t>
-  </si>
-  <si>
-    <t>91LB009</t>
-  </si>
-  <si>
-    <t>91RN011</t>
-  </si>
-  <si>
-    <t>91SL062D</t>
-  </si>
-  <si>
-    <t>91SL067</t>
-  </si>
-  <si>
-    <t>97RR086A</t>
-  </si>
-  <si>
-    <t>97KC003</t>
-  </si>
-  <si>
-    <t>97SL077</t>
-  </si>
-  <si>
-    <t>81MR083</t>
-  </si>
-  <si>
-    <t>87M</t>
+    <t>03LF013A</t>
+  </si>
+  <si>
+    <t>03MBW039A</t>
+  </si>
+  <si>
+    <t>07JEA015A</t>
+  </si>
+  <si>
+    <t>07JEA 287</t>
+  </si>
+  <si>
+    <t>07MBW286A</t>
+  </si>
+  <si>
+    <t>10GG183B</t>
+  </si>
+  <si>
+    <t>2012MBW002A</t>
+  </si>
+  <si>
+    <t>87MA015</t>
+  </si>
+  <si>
+    <t>PM15</t>
+  </si>
+  <si>
+    <t>TN503L 298</t>
+  </si>
+  <si>
+    <t>07MBW696B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -577,6 +553,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -587,9 +569,10 @@
       <name val="Courier"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Courier"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -597,15 +580,51 @@
       <name val="Courier"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="15"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Georgia, serif"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="-webkit-standard"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -622,7 +641,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -631,28 +657,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 17" xfId="1" xr:uid="{DC17D5AE-099B-E04F-85DF-F0922A428D1B}"/>
+    <cellStyle name="Normal 17 4" xfId="2" xr:uid="{CFC68616-AD06-E34B-9576-38675CA27CD8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -874,12 +912,12 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="A40" sqref="A40:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="8" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1">
@@ -887,81 +925,81 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>136</v>
+      <c r="A2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G2" s="3">
         <v>0.05</v>
@@ -970,31 +1008,31 @@
         <v>0.25</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R2" s="1">
         <v>0.78</v>
@@ -1003,60 +1041,60 @@
         <v>35.47</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>82</v>
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G3" s="3">
         <v>0.1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R3" s="1">
         <v>1.3</v>
@@ -1065,122 +1103,122 @@
         <v>117.16</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>137</v>
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="3">
         <v>0.1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="4">
+        <v>26</v>
+      </c>
+      <c r="R4" s="5">
         <v>0.16700000000000001</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="6">
         <v>576.15</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>138</v>
+        <v>43</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>45</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R5" s="1">
         <v>3.12</v>
@@ -1189,60 +1227,60 @@
         <v>15.86</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>139</v>
+        <v>46</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G6" s="3">
         <v>0.15</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R6" s="1">
         <v>0.97</v>
@@ -1251,60 +1289,60 @@
         <v>47.36</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>140</v>
+        <v>49</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G7" s="3">
         <v>0.05</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>45</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R7" s="1">
         <v>-2.54</v>
@@ -1313,60 +1351,60 @@
         <v>35.08</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>141</v>
+        <v>53</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R8" s="1">
         <v>0.22</v>
@@ -1375,60 +1413,60 @@
         <v>263.54000000000002</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>45</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R9" s="1">
         <v>2.5</v>
@@ -1437,60 +1475,60 @@
         <v>13.84</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>142</v>
+        <v>59</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>45</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R10" s="1">
         <v>-7</v>
@@ -1499,60 +1537,60 @@
         <v>14.25</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>45</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R11" s="1">
         <v>1.1399999999999999</v>
@@ -1561,60 +1599,60 @@
         <v>307.52999999999997</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>144</v>
+      <c r="A12" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G12" s="3">
         <v>0.05</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R12" s="1">
         <v>-1.23</v>
@@ -1623,60 +1661,60 @@
         <v>123.36</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>145</v>
+        <v>67</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>45</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R13" s="1">
         <v>3.87</v>
@@ -1685,60 +1723,60 @@
         <v>229.47</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>146</v>
+        <v>69</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R14" s="1">
         <v>-0.37</v>
@@ -1747,60 +1785,60 @@
         <v>229.79</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G15" s="3">
         <v>0.05</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>45</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R15" s="1">
         <v>1.08</v>
@@ -1809,60 +1847,60 @@
         <v>25.62</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>148</v>
+        <v>76</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G16" s="3">
         <v>0.05</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>45</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R16" s="1">
         <v>-2.5299999999999998</v>
@@ -1871,60 +1909,60 @@
         <v>141.94999999999999</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>149</v>
+        <v>80</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>45</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R17" s="1">
         <v>-3</v>
@@ -1933,60 +1971,60 @@
         <v>20.53</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>150</v>
+        <v>82</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R18" s="1">
         <v>2.5</v>
@@ -1995,122 +2033,122 @@
         <v>156.71</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>151</v>
+        <v>84</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G19" s="3">
         <v>0.1</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R19" s="8">
+        <v>4.72</v>
+      </c>
+      <c r="S19" s="5">
+        <v>15.11</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A20" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R19" s="6">
-        <v>4.72</v>
-      </c>
-      <c r="S19" s="4">
-        <v>15.11</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G20" s="3">
         <v>0.05</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>45</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R20" s="1">
         <v>1.7</v>
@@ -2119,60 +2157,60 @@
         <v>208.25</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>152</v>
+      <c r="A21" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G21" s="3">
         <v>0.1</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>45</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R21" s="1">
         <v>2.73</v>
@@ -2181,60 +2219,60 @@
         <v>25.62</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>153</v>
+      <c r="A22" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G22" s="3">
         <v>0.1</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O22" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="P22" s="1" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R22" s="1">
         <v>-1.71</v>
@@ -2243,60 +2281,60 @@
         <v>47.86</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>154</v>
+        <v>96</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="H23" s="3">
         <v>0.05</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>45</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R23" s="1">
         <v>1.78</v>
@@ -2305,60 +2343,60 @@
         <v>399.39</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>155</v>
+        <v>99</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G24" s="3">
         <v>0.1</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R24" s="1">
         <v>1.45</v>
@@ -2367,60 +2405,60 @@
         <v>46.46</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>156</v>
+      <c r="A25" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G25" s="3">
         <v>0.1</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R25" s="1">
         <v>7.72</v>
@@ -2429,60 +2467,60 @@
         <v>292.74</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>157</v>
+        <v>104</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G26" s="3">
         <v>0.1</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>45</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R26" s="1">
         <v>1.07</v>
@@ -2491,27 +2529,27 @@
         <v>301.27</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>158</v>
+        <v>106</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G27" s="3">
         <v>0.05</v>
@@ -2520,31 +2558,31 @@
         <v>0.1</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R27" s="1">
         <v>-1.69</v>
@@ -2553,83 +2591,83 @@
         <v>231.92</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>159</v>
+      <c r="A28" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G28" s="3">
         <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>122</v>
+        <v>112</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G29" s="3">
         <v>0.05</v>
@@ -2638,31 +2676,31 @@
         <v>0.15</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R29" s="1">
         <v>-0.99</v>
@@ -2671,60 +2709,60 @@
         <v>150.57</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>52</v>
+        <v>114</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R30" s="1">
         <v>1.21</v>
@@ -2733,27 +2771,27 @@
         <v>215.55</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>133</v>
+        <v>119</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G31" s="3">
         <v>0.05</v>
@@ -2762,56 +2800,56 @@
         <v>0.35</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
       <c r="T31" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>133</v>
+        <v>120</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G32" s="3">
         <v>0.15</v>
@@ -2820,31 +2858,31 @@
         <v>0</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R32" s="1">
         <v>-0.59</v>
@@ -2853,27 +2891,27 @@
         <v>23.54</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>133</v>
+        <v>122</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G33" s="3">
         <v>0.1</v>
@@ -2882,89 +2920,89 @@
         <v>0.45</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
       <c r="T33" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>87</v>
+        <v>123</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G34" s="3">
         <v>0.15</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R34" s="1">
         <v>-4.4400000000000004</v>
@@ -2973,27 +3011,27 @@
         <v>63.08</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>108</v>
+        <v>125</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G35" s="3">
         <v>0.05</v>
@@ -3002,31 +3040,31 @@
         <v>0.2</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R35" s="1">
         <v>-1.44</v>
@@ -3035,27 +3073,27 @@
         <v>14.42</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G36" s="3">
         <v>0.1</v>
@@ -3064,31 +3102,31 @@
         <v>0.2</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R36" s="1">
         <v>-1.81</v>
@@ -3097,18 +3135,18 @@
         <v>295.02</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>128</v>
@@ -3117,7 +3155,7 @@
         <v>128</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G37" s="3">
         <v>0</v>
@@ -3126,31 +3164,31 @@
         <v>0.9</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>45</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R37" s="1">
         <v>-2.14</v>
@@ -3159,58 +3197,58 @@
         <v>31.58</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A38" s="1" t="s">
-        <v>93</v>
+      <c r="A38" s="15" t="s">
+        <v>158</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G38" s="3">
         <v>0.05</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R38" s="1">
         <v>2.41</v>
@@ -3219,60 +3257,60 @@
         <v>18.36</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="H39" s="3">
         <v>0.2</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R39" s="1">
         <v>4.82</v>
@@ -3281,60 +3319,60 @@
         <v>80.709999999999994</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" t="s">
-        <v>169</v>
+      <c r="A40" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G40" s="3">
         <v>0.1</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R40" s="1">
         <v>-0.88</v>
@@ -3343,60 +3381,60 @@
         <v>45.96</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A41" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" t="s">
-        <v>169</v>
+      <c r="A41" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G41" s="3">
         <v>0.05</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="O41" s="1" t="s">
         <v>45</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R41" s="1">
         <v>-0.88</v>
@@ -3405,27 +3443,27 @@
         <v>45.96</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A42" s="1" t="s">
-        <v>129</v>
+      <c r="A42" s="17" t="s">
+        <v>159</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G42" s="3">
         <v>0.1</v>
@@ -3434,31 +3472,31 @@
         <v>0.4</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R42" s="1">
         <v>2.35</v>
@@ -3467,60 +3505,60 @@
         <v>338.02</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>69</v>
+        <v>135</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G43" s="3">
         <v>0.15</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R43" s="1">
         <v>3.16</v>
@@ -3529,60 +3567,60 @@
         <v>105.18</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>161</v>
+        <v>138</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="H44" s="3">
         <v>0.05</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R44" s="1">
         <v>-0.98</v>
@@ -3591,27 +3629,27 @@
         <v>34</v>
       </c>
       <c r="T44" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A45" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A45" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="E45" s="1" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G45" s="3">
         <v>0.1</v>
@@ -3620,31 +3658,31 @@
         <v>0.2</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R45" s="1">
         <v>-13.04</v>
@@ -3653,27 +3691,27 @@
         <v>45.92</v>
       </c>
       <c r="T45" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A46" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A46" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="F46" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G46" s="3">
         <v>0.1</v>
@@ -3682,31 +3720,31 @@
         <v>0.8</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R46" s="1">
         <v>-4.6500000000000004</v>
@@ -3715,60 +3753,60 @@
         <v>879.68</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A47" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>164</v>
+      <c r="A47" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G47" s="3">
         <v>0.1</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R47" s="1">
         <v>1.07</v>
@@ -3777,27 +3815,27 @@
         <v>237.38</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A48" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>165</v>
+      <c r="A48" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -3806,31 +3844,31 @@
         <v>0.9</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O48" s="1" t="s">
         <v>45</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R48" s="1">
         <v>-1.24</v>
@@ -3839,27 +3877,27 @@
         <v>204.95</v>
       </c>
       <c r="T48" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A49" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A49" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G49" s="3">
         <v>0.05</v>
@@ -3868,31 +3906,31 @@
         <v>0.3</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R49" s="1">
         <v>0.27</v>
@@ -3901,60 +3939,60 @@
         <v>64.569999999999993</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A50" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>167</v>
+      <c r="A50" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R50" s="1">
         <v>-2.34</v>
@@ -3963,60 +4001,60 @@
         <v>721.2</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A51" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>168</v>
+      <c r="A51" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O51" s="1" t="s">
         <v>45</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R51" s="1">
         <v>-3.05</v>
@@ -4025,58 +4063,58 @@
         <v>272.95999999999998</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A52" s="1" t="s">
-        <v>44</v>
+      <c r="A52" s="17" t="s">
+        <v>160</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G52" s="3">
         <v>0.15</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="O52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R52" s="1">
         <v>-9.02</v>
@@ -4085,58 +4123,58 @@
         <v>54.43</v>
       </c>
       <c r="T52" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F53" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G53" s="3">
         <v>0.15</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R53" s="1">
         <v>0.87</v>
@@ -4145,7 +4183,7 @@
         <v>231.09</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="15.75" customHeight="1"/>
@@ -4153,7 +4191,9 @@
     <row r="56" spans="1:20" ht="15.75" customHeight="1"/>
     <row r="57" spans="1:20" ht="15.75" customHeight="1"/>
     <row r="58" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="59" spans="1:20" ht="15.75" customHeight="1"/>
+    <row r="59" spans="1:20" ht="15.75" customHeight="1">
+      <c r="C59" s="14"/>
+    </row>
     <row r="60" spans="1:20" ht="15.75" customHeight="1"/>
     <row r="61" spans="1:20" ht="15.75" customHeight="1"/>
     <row r="62" spans="1:20" ht="15.75" customHeight="1"/>
@@ -5099,6 +5139,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T1000">
     <sortCondition ref="A2:A1000"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>